--- a/media/ipkim_download_ur.xlsx
+++ b/media/ipkim_download_ur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12094C5F-2DF7-9D40-BF40-9B2CC901720D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2BCE50-A10E-774A-9AEC-9BA72C47CB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" tabRatio="627" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Дата подключения</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>ИТОГО к оплате за май 2024г.:</t>
-  </si>
-  <si>
-    <t>АКТ сверки по физическим лицам за май 2024г.</t>
   </si>
   <si>
     <t>Порядковый №</t>
@@ -217,7 +214,7 @@
     <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -331,6 +328,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -536,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -857,6 +860,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1359,34 +1371,34 @@
     </row>
     <row r="9" spans="1:24" s="2" customFormat="1" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="84" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="86" t="s">
         <v>40</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>41</v>
       </c>
       <c r="E9" s="86" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="85" t="s">
+      <c r="H9" s="88" t="s">
         <v>43</v>
-      </c>
-      <c r="H9" s="88" t="s">
-        <v>44</v>
       </c>
       <c r="I9" s="100" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9" s="101" t="s">
         <v>12</v>
@@ -1398,31 +1410,31 @@
         <v>1</v>
       </c>
       <c r="N9" s="102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O9" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="101" t="s">
         <v>54</v>
-      </c>
-      <c r="P9" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9" s="101" t="s">
-        <v>55</v>
       </c>
       <c r="R9" s="103" t="s">
         <v>11</v>
       </c>
       <c r="S9" s="104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T9" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="U9" s="107" t="s">
+      <c r="V9" s="107" t="s">
         <v>51</v>
-      </c>
-      <c r="V9" s="107" t="s">
-        <v>52</v>
       </c>
       <c r="W9" s="107"/>
       <c r="X9" s="107"/>
@@ -3244,8 +3256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3281,10 +3293,12 @@
       <c r="J1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="K1" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
       <c r="O1" s="7"/>
       <c r="P1" s="9"/>
     </row>
@@ -3301,12 +3315,12 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="14"/>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
       <c r="O2" s="55"/>
       <c r="P2"/>
     </row>
@@ -3325,12 +3339,12 @@
         <v>9</v>
       </c>
       <c r="J3" s="12"/>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
       <c r="O3" s="7"/>
       <c r="P3" s="9"/>
     </row>
@@ -3391,24 +3405,22 @@
       <c r="P6" s="18"/>
     </row>
     <row r="7" spans="1:21" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="111" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="27"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
     </row>
     <row r="8" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:21" s="2" customFormat="1" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3416,28 +3428,28 @@
         <v>2</v>
       </c>
       <c r="B9" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="86" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>41</v>
       </c>
       <c r="D9" s="86" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="G9" s="88" t="s">
         <v>43</v>
-      </c>
-      <c r="G9" s="88" t="s">
-        <v>44</v>
       </c>
       <c r="H9" s="89" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="101" t="s">
         <v>16</v>
@@ -3446,19 +3458,19 @@
         <v>1</v>
       </c>
       <c r="L9" s="90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M9" s="90" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O9" s="92" t="s">
         <v>11</v>
       </c>
       <c r="P9" s="93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="107"/>
       <c r="R9" s="107"/>
@@ -5177,9 +5189,12 @@
       <c r="P104" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>
